--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_16.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_16.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>757146.5514982925</v>
+        <v>817982.0264099928</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>221913.589591666</v>
+        <v>210674.1627960955</v>
       </c>
     </row>
     <row r="8">
@@ -658,17 +658,17 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
@@ -676,13 +676,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>56.91690033700354</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1028,7 +1028,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>11.19305615617946</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>52.42556848774763</v>
+        <v>241.014288877659</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.014288877659</v>
       </c>
     </row>
     <row r="9">
@@ -1265,22 +1265,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>62.43486741948623</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>29.79900896488246</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>239.01154695586</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>413.784170020795</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>339.1472112407546</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>89.06613335611762</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>39.58626266897624</v>
       </c>
     </row>
     <row r="14">
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>291.0318209494275</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>86.51421661441728</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.47369082546863</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.465802816548228</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,16 +1891,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>172.6034912071749</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>155.102774004095</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1940,10 +1940,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H18" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I18" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>156.1271626621474</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
         <v>286.2818742419777</v>
@@ -2064,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>49.26213668469065</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2146,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>257.0152846411291</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I21" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S21" t="n">
         <v>156.5912426325231</v>
@@ -2244,19 +2244,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>70.8027698327014</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2292,13 +2292,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>156.1271626621473</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>16.43083010065469</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2371,19 +2371,19 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>254.7862334608615</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229386</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>70.18226380646176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>4.440065804380909</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,19 +2557,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>231.7173056877572</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>126.5988758341312</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933845</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>136.5310119231965</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>89.06613335611793</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>235.5000960026871</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>74.08031997323694</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2839,28 +2839,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>92.78698220079546</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H30" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>52.10844059186266</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>89.06613335611793</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,10 +3034,10 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>46.53270054897305</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>67.36777966687721</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,28 +3076,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H33" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>86.88462298447477</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>92.00803688215797</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3268,25 +3268,25 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>242.5869640670686</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>81.74870292652309</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229386</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>6.165601831728204</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>89.06613335611794</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>182.3501024556737</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>166.9395383439691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>152.4625225902371</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>68.19029374363612</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,16 +3742,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>180.7161654767454</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>236.7740349560483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,10 +3836,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,13 +3866,13 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T42" t="n">
-        <v>196.8897623984489</v>
+        <v>196.889762398448</v>
       </c>
       <c r="U42" t="n">
         <v>225.8879277888686</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>162.3364906735236</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>155.8860385675338</v>
       </c>
     </row>
     <row r="44">
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>172.0766384386614</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>61.75656432199267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>89.06613335611762</v>
+        <v>60.79152971843303</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C2" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X2" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y2" t="n">
-        <v>506.1786963984129</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="3">
@@ -4418,13 +4418,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4442,7 +4442,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
         <v>678.3417187247995</v>
@@ -4546,16 +4546,16 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X5" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y5" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4649,13 +4649,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4676,19 +4676,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y6" t="n">
         <v>19.28114311021272</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
         <v>19.28114311021272</v>
@@ -4816,40 +4816,40 @@
         <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>725.2021500759371</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>874.3971002185851</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424089</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219591</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278869</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="W8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984127</v>
       </c>
       <c r="X8" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543127</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="9">
@@ -4892,40 +4892,40 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>542.8095319084027</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>781.4136778972852</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>964.057155510636</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>964.057155510636</v>
       </c>
       <c r="U9" t="n">
-        <v>533.6469426057913</v>
+        <v>735.8335372470251</v>
       </c>
       <c r="V9" t="n">
-        <v>470.5814199598456</v>
+        <v>500.6814290152824</v>
       </c>
       <c r="W9" t="n">
-        <v>227.1326433157456</v>
+        <v>257.2326523711824</v>
       </c>
       <c r="X9" t="n">
-        <v>19.28114311021272</v>
+        <v>49.38115216564955</v>
       </c>
       <c r="Y9" t="n">
         <v>19.28114311021272</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2307.009759042411</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C11" t="n">
-        <v>1938.047242101999</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D11" t="n">
-        <v>1579.781543495249</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.993290897004</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
         <v>952.5674858910851</v>
@@ -5038,16 +5038,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5059,34 +5059,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V11" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W11" t="n">
-        <v>2697.149091018222</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="X11" t="n">
-        <v>2697.149091018222</v>
+        <v>2135.941483343059</v>
       </c>
       <c r="Y11" t="n">
-        <v>2307.009759042411</v>
+        <v>2135.941483343059</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
         <v>2646.935720430048</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>438.7118141694736</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="C13" t="n">
-        <v>438.7118141694736</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="D13" t="n">
-        <v>438.7118141694736</v>
+        <v>506.4943954681378</v>
       </c>
       <c r="E13" t="n">
-        <v>290.7987205870805</v>
+        <v>358.5813018857447</v>
       </c>
       <c r="F13" t="n">
-        <v>143.9087730891701</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
         <v>110.2451748866326</v>
@@ -5208,43 +5208,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W13" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X13" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y13" t="n">
-        <v>438.7118141694736</v>
+        <v>688.1428602983775</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1920.918182229333</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="C14" t="n">
-        <v>1626.94664591678</v>
+        <v>885.3850306156796</v>
       </c>
       <c r="D14" t="n">
-        <v>1268.68094731003</v>
+        <v>527.1193320089292</v>
       </c>
       <c r="E14" t="n">
-        <v>882.8926947117852</v>
+        <v>141.3310794106849</v>
       </c>
       <c r="F14" t="n">
-        <v>471.9067899221776</v>
+        <v>141.3310794106849</v>
       </c>
       <c r="G14" t="n">
         <v>53.94298182036445</v>
@@ -5278,10 +5278,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J14" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
         <v>881.2824271224076</v>
@@ -5290,7 +5290,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5311,19 +5311,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.057514205145</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W14" t="n">
-        <v>2311.057514205145</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X14" t="n">
-        <v>2311.057514205145</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y14" t="n">
-        <v>1920.918182229333</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
@@ -5375,25 +5375,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R15" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S15" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T15" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U15" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W15" t="n">
         <v>1572.325111207638</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>257.0633493392342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C16" t="n">
-        <v>257.0633493392342</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D16" t="n">
-        <v>106.9467099268984</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E16" t="n">
-        <v>106.9467099268984</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F16" t="n">
-        <v>106.9467099268984</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>55.42359072596872</v>
       </c>
       <c r="H16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M16" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W16" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X16" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y16" t="n">
-        <v>438.7118141694738</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1177.911859172214</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="C17" t="n">
-        <v>1177.911859172214</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="D17" t="n">
-        <v>1177.911859172214</v>
+        <v>1004.183115213127</v>
       </c>
       <c r="E17" t="n">
-        <v>792.1236065739693</v>
+        <v>618.3948626148824</v>
       </c>
       <c r="F17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G17" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H17" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
         <v>881.2824271224076</v>
@@ -5533,34 +5533,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T17" t="n">
-        <v>2522.802130202894</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U17" t="n">
-        <v>2269.040344840986</v>
+        <v>2485.450932857711</v>
       </c>
       <c r="V17" t="n">
-        <v>1937.977457497415</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="W17" t="n">
-        <v>1937.977457497415</v>
+        <v>2154.38804551414</v>
       </c>
       <c r="X17" t="n">
-        <v>1564.511699236335</v>
+        <v>1780.92228725306</v>
       </c>
       <c r="Y17" t="n">
-        <v>1564.511699236335</v>
+        <v>1390.782955277248</v>
       </c>
     </row>
     <row r="18">
@@ -5570,73 +5570,73 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E18" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F18" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G18" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H18" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X18" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y18" t="n">
         <v>1156.713312237151</v>
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5682,7 +5682,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N19" t="n">
         <v>529.6040388502502</v>
@@ -5691,34 +5691,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T19" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U19" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="V19" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="W19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1659.880644283887</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C20" t="n">
-        <v>1290.918127343476</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D20" t="n">
-        <v>932.6524287367251</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>932.6524287367251</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>521.6665239471176</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>103.7027158453045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5767,7 +5767,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O20" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P20" t="n">
         <v>2544.691559791253</v>
@@ -5782,22 +5782,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V20" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W20" t="n">
-        <v>2423.485734520779</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X20" t="n">
-        <v>2050.019976259699</v>
+        <v>2382.509002921313</v>
       </c>
       <c r="Y20" t="n">
-        <v>1659.880644283887</v>
+        <v>2382.509002921313</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q21" t="n">
         <v>2697.149091018223</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036446</v>
+        <v>578.0123447940988</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036446</v>
+        <v>430.0992512117057</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036446</v>
+        <v>283.2093037137953</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K22" t="n">
         <v>110.2451748866326</v>
@@ -5919,7 +5919,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M22" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N22" t="n">
         <v>529.6040388502502</v>
@@ -5928,34 +5928,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S22" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T22" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U22" t="n">
-        <v>211.6471865296041</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036446</v>
+        <v>728.1289842064346</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1241.158393318536</v>
+        <v>1626.717708340417</v>
       </c>
       <c r="C23" t="n">
-        <v>1241.158393318536</v>
+        <v>1257.755191400005</v>
       </c>
       <c r="D23" t="n">
-        <v>882.8926947117852</v>
+        <v>899.4894927932546</v>
       </c>
       <c r="E23" t="n">
         <v>882.8926947117852</v>
@@ -5980,16 +5980,16 @@
         <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
         <v>463.9616490733129</v>
@@ -6019,22 +6019,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628378</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>1967.39280684973</v>
+        <v>2366.086203674653</v>
       </c>
       <c r="W23" t="n">
-        <v>1614.624151579615</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X23" t="n">
-        <v>1241.158393318536</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y23" t="n">
-        <v>1241.158393318536</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641986</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598705</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>657.237808644352</v>
+        <v>541.9956044222747</v>
       </c>
       <c r="C25" t="n">
-        <v>488.3016257164451</v>
+        <v>373.0594214943678</v>
       </c>
       <c r="D25" t="n">
-        <v>338.1849863041093</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="E25" t="n">
-        <v>190.2718927217162</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="F25" t="n">
-        <v>190.2718927217162</v>
+        <v>222.9427820820321</v>
       </c>
       <c r="G25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H25" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
@@ -6156,7 +6156,7 @@
         <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N25" t="n">
         <v>529.6040388502502</v>
@@ -6189,10 +6189,10 @@
         <v>728.1289842064346</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064346</v>
+        <v>723.6440692525144</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064346</v>
+        <v>723.6440692525144</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>882.8926947117852</v>
+        <v>1577.945354755379</v>
       </c>
       <c r="C26" t="n">
-        <v>882.8926947117852</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D26" t="n">
-        <v>882.8926947117852</v>
+        <v>850.7171392082163</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036447</v>
@@ -6226,13 +6226,13 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2478.514423990286</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="U26" t="n">
-        <v>2224.752638628378</v>
+        <v>2423.485734520779</v>
       </c>
       <c r="V26" t="n">
-        <v>1893.689751284807</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="W26" t="n">
-        <v>1659.631866751719</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="X26" t="n">
-        <v>1659.631866751719</v>
+        <v>2092.422847177208</v>
       </c>
       <c r="Y26" t="n">
-        <v>1269.492534775907</v>
+        <v>1964.5451948195</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170839</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359569</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961344</v>
@@ -6305,25 +6305,25 @@
         <v>53.94298182036447</v>
       </c>
       <c r="J27" t="n">
-        <v>129.2001442204943</v>
+        <v>113.6371076753678</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615929</v>
+        <v>368.8844281164664</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572649</v>
+        <v>773.5003462121383</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P27" t="n">
-        <v>2525.076107152627</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6338,19 +6338,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X27" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y27" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E28" t="n">
-        <v>290.7987205870808</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F28" t="n">
-        <v>143.9087730891705</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036447</v>
@@ -6420,16 +6420,16 @@
         <v>728.1289842064346</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064346</v>
+        <v>490.2500993552354</v>
       </c>
       <c r="W28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="X28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="Y28" t="n">
-        <v>438.7118141694739</v>
+        <v>200.8329293182748</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1701.775251950353</v>
+        <v>808.6937513590204</v>
       </c>
       <c r="C29" t="n">
-        <v>1626.94664591678</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>439.7312344186087</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
@@ -6478,7 +6478,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
         <v>2544.691559791253</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U29" t="n">
-        <v>2478.514423990286</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V29" t="n">
-        <v>2478.514423990286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W29" t="n">
-        <v>2478.514423990286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X29" t="n">
-        <v>2478.514423990286</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.375092014474</v>
+        <v>1195.293591423142</v>
       </c>
     </row>
     <row r="30">
@@ -6539,25 +6539,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598709</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
         <v>2525.076107152626</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C31" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="D31" t="n">
-        <v>438.7118141694739</v>
+        <v>675.4941957298054</v>
       </c>
       <c r="E31" t="n">
-        <v>290.7987205870808</v>
+        <v>527.5811021474123</v>
       </c>
       <c r="F31" t="n">
-        <v>143.9087730891705</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W31" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X31" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y31" t="n">
-        <v>438.7118141694739</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1315.683675137275</v>
+        <v>1309.20665560831</v>
       </c>
       <c r="C32" t="n">
-        <v>1315.683675137275</v>
+        <v>1309.20665560831</v>
       </c>
       <c r="D32" t="n">
-        <v>1268.68094731003</v>
+        <v>950.94095700156</v>
       </c>
       <c r="E32" t="n">
-        <v>882.8926947117852</v>
+        <v>950.94095700156</v>
       </c>
       <c r="F32" t="n">
-        <v>471.9067899221776</v>
+        <v>539.9550522119525</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036447</v>
+        <v>121.9912441101394</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520779</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V32" t="n">
-        <v>2092.422847177208</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W32" t="n">
-        <v>2092.422847177208</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.422847177208</v>
+        <v>1695.806495672432</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.283515201397</v>
+        <v>1695.806495672432</v>
       </c>
     </row>
     <row r="33">
@@ -6755,73 +6755,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K33" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L33" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N33" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P33" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q33" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X33" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y33" t="n">
         <v>1156.713312237151</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>438.7118141694739</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="C34" t="n">
-        <v>438.7118141694739</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="D34" t="n">
-        <v>288.5951747571382</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E34" t="n">
-        <v>288.5951747571382</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F34" t="n">
-        <v>141.7052272592279</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G34" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H34" t="n">
-        <v>53.94298182036447</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J34" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K34" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N34" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O34" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>728.1289842064346</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="T34" t="n">
-        <v>728.1289842064346</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="U34" t="n">
-        <v>728.1289842064346</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="V34" t="n">
-        <v>728.1289842064346</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="W34" t="n">
-        <v>438.7118141694739</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="X34" t="n">
-        <v>438.7118141694739</v>
+        <v>635.1915732143555</v>
       </c>
       <c r="Y34" t="n">
-        <v>438.7118141694739</v>
+        <v>635.1915732143555</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1871.983983358263</v>
+        <v>1250.638474227115</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>881.6759572867031</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>881.6759572867031</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>881.6759572867031</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>881.6759572867031</v>
       </c>
       <c r="G35" t="n">
-        <v>53.94298182036447</v>
+        <v>463.71214918489</v>
       </c>
       <c r="H35" t="n">
-        <v>53.94298182036447</v>
+        <v>136.5174292208928</v>
       </c>
       <c r="I35" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L35" t="n">
         <v>881.2824271224079</v>
@@ -6952,7 +6952,7 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P35" t="n">
         <v>2544.691559791253</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R35" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S35" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T35" t="n">
-        <v>2478.514423990286</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U35" t="n">
-        <v>2224.752638628378</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V35" t="n">
-        <v>2224.752638628378</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W35" t="n">
-        <v>1871.983983358263</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="X35" t="n">
-        <v>1871.983983358263</v>
+        <v>1640.777806202927</v>
       </c>
       <c r="Y35" t="n">
-        <v>1871.983983358263</v>
+        <v>1250.638474227115</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J36" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517454</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152627</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018223</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J37" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K37" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L37" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M37" t="n">
-        <v>382.7169011658211</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N37" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O37" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S37" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T37" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U37" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V37" t="n">
-        <v>638.1631929376285</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W37" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X37" t="n">
-        <v>348.7460229006679</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y37" t="n">
-        <v>348.7460229006679</v>
+        <v>217.9192350259436</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1166.959449965771</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C38" t="n">
-        <v>797.9969330253592</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="D38" t="n">
-        <v>439.7312344186087</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036447</v>
+        <v>802.5868852973811</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036447</v>
+        <v>391.6009805077735</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
-        <v>169.7108380533141</v>
+        <v>169.710838053314</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656315</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312744</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.324418312744</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X38" t="n">
-        <v>1943.698622005704</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y38" t="n">
-        <v>1553.559290029893</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="39">
@@ -7229,73 +7229,73 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.806220357135</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P39" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X39" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y39" t="n">
         <v>1156.713312237151</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="C40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="D40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="E40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="F40" t="n">
-        <v>222.9427820820321</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="G40" t="n">
-        <v>53.94298182036447</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L40" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064346</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064346</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U40" t="n">
-        <v>659.2498996169031</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V40" t="n">
-        <v>659.2498996169031</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="X40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="Y40" t="n">
-        <v>369.8327295799425</v>
+        <v>365.6939024587809</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1036.358670716696</v>
+        <v>1176.876864157141</v>
       </c>
       <c r="C41" t="n">
-        <v>1036.358670716696</v>
+        <v>807.9143472167298</v>
       </c>
       <c r="D41" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="E41" t="n">
-        <v>1036.358670716696</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="F41" t="n">
         <v>625.3727659270879</v>
@@ -7408,16 +7408,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7429,34 +7429,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T41" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U41" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V41" t="n">
-        <v>2388.358616186807</v>
+        <v>1916.245359491377</v>
       </c>
       <c r="W41" t="n">
-        <v>2035.589960916693</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="X41" t="n">
-        <v>1662.124202655614</v>
+        <v>1563.476704221263</v>
       </c>
       <c r="Y41" t="n">
-        <v>1422.958510780817</v>
+        <v>1563.476704221263</v>
       </c>
     </row>
     <row r="42">
@@ -7481,22 +7481,22 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H42" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J42" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
         <v>1313.210296315296</v>
@@ -7505,19 +7505,19 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2291.509718890065</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2627.754532504894</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R42" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S42" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T42" t="n">
         <v>2289.884200196743</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V43" t="n">
-        <v>728.1289842064346</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W43" t="n">
-        <v>438.7118141694739</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="X43" t="n">
-        <v>438.7118141694739</v>
+        <v>211.4036268380754</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.9192350259438</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1268.68094731003</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C44" t="n">
-        <v>1268.68094731003</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D44" t="n">
         <v>1268.68094731003</v>
@@ -7648,13 +7648,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
@@ -7678,22 +7678,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573122</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="X44" t="n">
-        <v>1331.061315312042</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="Y44" t="n">
-        <v>1268.68094731003</v>
+        <v>2169.72394915887</v>
       </c>
     </row>
     <row r="45">
@@ -7718,7 +7718,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
@@ -7733,25 +7733,25 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R45" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
         <v>2488.762748073963</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>438.7118141694736</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C46" t="n">
-        <v>438.7118141694736</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="D46" t="n">
-        <v>348.7460229006679</v>
+        <v>485.0749338020197</v>
       </c>
       <c r="E46" t="n">
-        <v>200.8329293182748</v>
+        <v>337.1618402196266</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I46" t="n">
         <v>53.94298182036445</v>
@@ -7845,13 +7845,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y46" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
   </sheetData>
@@ -8066,16 +8066,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>197.6503338623806</v>
+        <v>383.1483227996773</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236954</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>383.6105333221034</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,16 +22546,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22564,13 +22564,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>298.998522982632</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22682,10 +22682,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -22783,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22828,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>156.5945010984978</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -22916,7 +22916,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -22931,7 +22931,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -23026,7 +23026,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23068,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>240.152596751657</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>317.3055321907214</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783946</v>
       </c>
     </row>
     <row r="9">
@@ -23153,22 +23153,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>170.365719729939</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>10.68069428326061</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>175.8836868124219</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>167.8644987858515</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23311,7 +23311,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2241675082893</v>
@@ -23320,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>10.09375747665837</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>78.24366890293329</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>134.9656217923382</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>178.9983906831185</v>
       </c>
     </row>
     <row r="14">
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>74.24107082158002</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>327.2699534063777</v>
       </c>
       <c r="H14" t="n">
         <v>323.9227727643571</v>
@@ -23551,16 +23551,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.8361114335823</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>154.7050860252469</v>
       </c>
       <c r="I16" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
@@ -23749,10 +23749,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,16 +23779,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>43.84482915048289</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>96.12139350419434</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>85.19271039829675</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23913,7 +23913,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J19" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R19" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787155</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>274.6606360796665</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
@@ -24034,10 +24034,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>112.7158160373399</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24132,25 +24132,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.3098022590509</v>
+        <v>96.50703242634951</v>
       </c>
       <c r="H22" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J22" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R22" t="n">
         <v>146.6651919801578</v>
@@ -24180,13 +24180,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>96.01048066168073</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24205,16 +24205,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>365.4995399716071</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24259,19 +24259,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>72.96602500927344</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109.6497163754755</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
         <v>45.19995918853698</v>
@@ -24429,7 +24429,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>221.2695895846562</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>117.5236630296558</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>259.6390628219224</v>
       </c>
     </row>
     <row r="27">
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>78.24366890293298</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24660,7 +24660,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>16.63754732114089</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>291.1925717977706</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>293.4509564552581</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>96.5070324263497</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.24366890293298</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J31" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,10 +24882,10 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R31" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S31" t="n">
         <v>212.1455389500189</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,10 +24922,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>308.1503410717099</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>256.55499309748</v>
       </c>
       <c r="I32" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25083,22 +25083,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>80.42517927457614</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>120.1375020678609</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25156,25 +25156,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>122.6859277039389</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448612</v>
+        <v>70.18261331833816</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>173.6663783502091</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25320,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>135.9689721019663</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>231.4340675651213</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,7 +25447,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>202.7915623344999</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25560,19 +25560,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>14.84727966881377</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,25 +25593,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>218.0915804983416</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25630,16 +25630,16 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>173.9668761439376</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>149.4639037000053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25760,7 +25760,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>4.973311585527341</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>62.69861478456099</v>
       </c>
     </row>
     <row r="44">
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>210.6572032248192</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>324.4813743340609</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>59.54933966209474</v>
+        <v>87.82394329977933</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>448633.8158345977</v>
+        <v>448633.8158345976</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>780712.0470425456</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.047042546</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.047042546</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>780712.0470425457</v>
+        <v>780712.0470425459</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>780712.0470425459</v>
+        <v>780712.0470425457</v>
       </c>
     </row>
     <row r="14">
@@ -26322,10 +26322,10 @@
         <v>132928.5380250659</v>
       </c>
       <c r="E2" t="n">
+        <v>231322.0880126062</v>
+      </c>
+      <c r="F2" t="n">
         <v>231322.0880126061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>231322.088012606</v>
       </c>
       <c r="G2" t="n">
         <v>231322.0880126061</v>
@@ -26337,7 +26337,7 @@
         <v>231322.0880126061</v>
       </c>
       <c r="J2" t="n">
-        <v>231322.0880126062</v>
+        <v>231322.0880126061</v>
       </c>
       <c r="K2" t="n">
         <v>231322.0880126061</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910629</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>107973.3606740582</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26432,31 +26432,31 @@
         <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="H4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="I4" t="n">
+        <v>513.1084990597037</v>
+      </c>
+      <c r="J4" t="n">
+        <v>513.1084990597036</v>
+      </c>
+      <c r="K4" t="n">
         <v>513.1084990597035</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
         <v>513.1084990597035</v>
       </c>
-      <c r="I4" t="n">
-        <v>513.1084990597036</v>
-      </c>
-      <c r="J4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="K4" t="n">
-        <v>513.1084990597037</v>
-      </c>
-      <c r="L4" t="n">
-        <v>513.1084990597036</v>
-      </c>
       <c r="M4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597037</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
         <v>513.1084990597035</v>
@@ -26475,40 +26475,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>48281.26876376166</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="F5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340948</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340949</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340949</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340949</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340948</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8519.705387987919</v>
+        <v>2476.5041700485</v>
       </c>
       <c r="C6" t="n">
-        <v>72249.72614355976</v>
+        <v>83245.93570159625</v>
       </c>
       <c r="D6" t="n">
-        <v>72249.72614355979</v>
+        <v>83245.93570159623</v>
       </c>
       <c r="E6" t="n">
-        <v>-257337.0863386783</v>
+        <v>-251875.5139674411</v>
       </c>
       <c r="F6" t="n">
-        <v>175509.0877043176</v>
+        <v>180970.660075555</v>
       </c>
       <c r="G6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="H6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="I6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="J6" t="n">
-        <v>112449.1451052115</v>
+        <v>117910.7174764488</v>
       </c>
       <c r="K6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="L6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="M6" t="n">
-        <v>67535.7270302596</v>
+        <v>72997.29940149676</v>
       </c>
       <c r="N6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="O6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
       <c r="P6" t="n">
-        <v>175509.0877043177</v>
+        <v>180970.660075555</v>
       </c>
     </row>
   </sheetData>
@@ -26749,13 +26749,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="G3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="H3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170868</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170868</v>
@@ -26764,19 +26764,19 @@
         <v>377.7436642170868</v>
       </c>
       <c r="K3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="L3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="M3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="N3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="O3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
         <v>377.7436642170866</v>
@@ -26795,40 +26795,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="F4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="M4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
         <v>674.2872727545556</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776593</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768969</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>433.2729838768967</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31995,19 +31995,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L14" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
@@ -32022,13 +32022,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I15" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32095,22 +32095,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S15" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I16" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
         <v>79.14039391302239</v>
@@ -32171,16 +32171,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P16" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
@@ -32232,7 +32232,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I17" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J17" t="n">
         <v>128.8865178727436</v>
@@ -32241,34 +32241,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L17" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M17" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N17" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O17" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P17" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q17" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R17" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S17" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T17" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,40 +32305,40 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H18" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I18" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K18" t="n">
-        <v>87.78329382423925</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L18" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N18" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O18" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P18" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S18" t="n">
         <v>15.09192847131473</v>
@@ -32347,7 +32347,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H19" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I19" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J19" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K19" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L19" t="n">
         <v>101.2724571246924</v>
@@ -32408,25 +32408,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O19" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P19" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R19" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S19" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T19" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>15.55202935141</v>
       </c>
       <c r="I20" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J20" t="n">
         <v>128.8865178727436</v>
@@ -32478,34 +32478,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L20" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M20" t="n">
         <v>266.6471645405368</v>
       </c>
       <c r="N20" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O20" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P20" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q20" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R20" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S20" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T20" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,40 +32542,40 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H21" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I21" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J21" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K21" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N21" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q21" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S21" t="n">
         <v>15.09192847131473</v>
@@ -32584,7 +32584,7 @@
         <v>3.274966296372666</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H22" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I22" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J22" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K22" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L22" t="n">
         <v>101.2724571246924</v>
@@ -32645,25 +32645,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O22" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P22" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R22" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S22" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T22" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32791,7 +32791,7 @@
         <v>76.7639270839648</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423908</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478008</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034984</v>
@@ -33025,7 +33025,7 @@
         <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.7639270839648</v>
+        <v>61.04368814949356</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649103</v>
@@ -33043,10 +33043,10 @@
         <v>193.3156655923048</v>
       </c>
       <c r="P27" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639066</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034984</v>
@@ -33180,43 +33180,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I29" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J29" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K29" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L29" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M29" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N29" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O29" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P29" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q29" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R29" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S29" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T29" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H30" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I30" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K30" t="n">
-        <v>87.78329382423954</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N30" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O30" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P30" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958058</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R30" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S30" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T30" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H31" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I31" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J31" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K31" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L31" t="n">
         <v>101.2724571246924</v>
@@ -33356,25 +33356,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O31" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P31" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R31" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S31" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T31" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,43 +33417,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K32" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L32" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M32" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N32" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L33" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O33" t="n">
-        <v>193.3156655923048</v>
+        <v>73.8798454939265</v>
       </c>
       <c r="P33" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>60.29709682323551</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,25 +33593,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S34" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,43 +33654,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K35" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L35" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M35" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N35" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M36" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N36" t="n">
-        <v>91.88325107529278</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O36" t="n">
-        <v>193.3156655923048</v>
+        <v>73.87984549392741</v>
       </c>
       <c r="P36" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,25 +33830,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S37" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,43 +33891,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L38" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M38" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N38" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L39" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M39" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N39" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,25 +34067,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S40" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K41" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L41" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M41" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N41" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L42" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M42" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
-        <v>177.5954266578334</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P42" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,25 +34304,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S43" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L45" t="n">
-        <v>56.98116194942315</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M45" t="n">
         <v>205.8702969983122</v>
@@ -34468,19 +34468,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34786,16 +34786,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.014288877659</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036207</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>241.014288877659</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35509,7 +35509,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K14" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
         <v>406.5635087530452</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,22 +35889,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L17" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M17" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N17" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O17" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P17" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q17" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L18" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338903</v>
@@ -35983,7 +35983,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L19" t="n">
         <v>128.8624823850085</v>
@@ -36056,10 +36056,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O19" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P19" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,22 +36126,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L20" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M20" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N20" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O20" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P20" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q20" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K21" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338903</v>
@@ -36220,7 +36220,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L22" t="n">
         <v>128.8624823850085</v>
@@ -36293,10 +36293,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O22" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P22" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713858</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770695</v>
+        <v>60.29709682323571</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031299</v>
@@ -36691,10 +36691,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,28 +36831,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K29" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L29" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M29" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N29" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O29" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P29" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q29" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P30" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q30" t="n">
         <v>173.8110948137341</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L31" t="n">
         <v>128.8624823850085</v>
@@ -37004,10 +37004,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O31" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P31" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K32" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L32" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M32" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N32" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K33" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L33" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262116</v>
       </c>
       <c r="P33" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37241,10 +37241,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O34" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K35" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L35" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M35" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N35" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770695</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M36" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>439.883913335513</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P36" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
         <v>173.8110948137341</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37478,10 +37478,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O37" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181308</v>
       </c>
       <c r="K38" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L38" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M38" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N38" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M39" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q39" t="n">
         <v>173.8110948137341</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37715,10 +37715,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37779,28 +37779,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K41" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L41" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L42" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>428.8615014901185</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37952,10 +37952,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O43" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L45" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
         <v>529.4413268262938</v>
@@ -38110,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
